--- a/XPeng_Valuation_Monitor_v3.xlsx
+++ b/XPeng_Valuation_Monitor_v3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Start_Rev_2025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scenarios" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KPI_Monitor" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data_Log" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Discipline" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sensitivity" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Start_Rev_2025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Scenarios" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="KPI_Monitor" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Data_Log" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Discipline" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Summary" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sensitivity" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1493,7 +1493,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1537,7 +1536,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1581,7 +1579,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1625,7 +1622,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1669,7 +1665,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1713,7 +1708,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1754,7 +1748,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1798,7 +1791,6 @@
           <t>手工维护</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>2025-12-29 08:21:12</t>
@@ -1839,11 +1831,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>未披露(财报未单列)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>自动识别(财报/表格)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>KPI_Monitor!A10（占比字段邻近数值）</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>robot|robotics|robotaxi|humanoid|机器人|人形|萝卜快跑</t>
@@ -1851,7 +1846,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-12-29 08:21:12</t>
+          <t>2025-12-29 12:21:23</t>
         </is>
       </c>
     </row>
